--- a/看的书.xlsx
+++ b/看的书.xlsx
@@ -19,16 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>书名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>作者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>出版社</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -74,6 +70,42 @@
   </si>
   <si>
     <t>my-git\vue-test\Vue\vue2/my-project(只初始化,未完成)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户体验要素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jesse James Garrett[美]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>范晓燕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>著</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械工业出版社</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.12.26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.12.27</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -399,66 +431,93 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.25" customWidth="1"/>
-    <col min="3" max="3" width="36.625" customWidth="1"/>
-    <col min="4" max="4" width="10.25" customWidth="1"/>
-    <col min="5" max="5" width="12.25" customWidth="1"/>
-    <col min="6" max="6" width="10.875" customWidth="1"/>
-    <col min="7" max="7" width="49.75" customWidth="1"/>
+    <col min="2" max="3" width="24.375" customWidth="1"/>
+    <col min="4" max="4" width="36.625" customWidth="1"/>
+    <col min="5" max="5" width="10.25" customWidth="1"/>
+    <col min="6" max="6" width="12.25" customWidth="1"/>
+    <col min="7" max="7" width="10.875" customWidth="1"/>
+    <col min="8" max="8" width="49.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/看的书.xlsx
+++ b/看的书.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>书名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,6 +106,58 @@
   </si>
   <si>
     <t>2017.12.27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半小时漫画中国史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二混子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江苏凤凰文艺出版社</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.12.29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.12.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单页web应用(JavaScript从前端到后端)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Michael S.Mikowski   Josh C.Powell[美]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包勇明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人民邮电出版社</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摄影的艺术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.1.7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -431,16 +483,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.25" customWidth="1"/>
-    <col min="2" max="3" width="24.375" customWidth="1"/>
+    <col min="1" max="1" width="33.625" customWidth="1"/>
+    <col min="2" max="2" width="32.375" customWidth="1"/>
+    <col min="3" max="3" width="24.375" customWidth="1"/>
     <col min="4" max="4" width="36.625" customWidth="1"/>
     <col min="5" max="5" width="10.25" customWidth="1"/>
     <col min="6" max="6" width="12.25" customWidth="1"/>
@@ -520,6 +573,59 @@
         <v>21</v>
       </c>
     </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
